--- a/正規化.xlsx
+++ b/正規化.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java 班\git_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA202303-5D3F-46C1-8C55-70FA39FAF3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F8A21-E333-418B-8448-B1C70BD11F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="題目" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -1727,47 +1727,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>設施地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>容人數量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>容人數量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2214,10 +2173,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>警察局轄管區域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2276,51 +2231,199 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>P001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P009</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P012</t>
+    <t>設施地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮民族街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南分局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施種類</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>警察局轄管區域(刪除)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10BYTE)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(30)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮公義路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1035</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮竹南里中山路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 103 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後龍鎮埔頂里中興路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>136-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忠孝里光大街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-614186</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2469,7 +2572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2488,7 +2591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2534,9 +2637,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2549,17 +2649,11 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2588,9 +2682,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2609,13 +2700,43 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2935,7 +3056,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3348,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20967F2A-BACC-45CF-AC4F-7EA3441FD220}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4285,45 +4406,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07EB040-42BE-4B4A-8B95-02C2D3E72C84}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="21.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="39.625" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="G1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="G1" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="12" t="s">
@@ -4332,17 +4450,17 @@
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="13" t="s">
@@ -4354,7 +4472,7 @@
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>77</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -4369,55 +4487,55 @@
       <c r="J3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="14" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>74</v>
+        <v>122</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
+        <v>121</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
+      <c r="B5" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>12</v>
@@ -4425,17 +4543,17 @@
       <c r="H5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>14</v>
+      <c r="I5" s="48" t="s">
+        <v>123</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="5" t="s">
@@ -4448,7 +4566,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>22</v>
@@ -4456,17 +4574,17 @@
       <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>24</v>
+      <c r="I6" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="5" t="s">
@@ -4479,7 +4597,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>27</v>
@@ -4491,13 +4609,13 @@
         <v>29</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+        <v>127</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17">
       <c r="G8" s="8" t="s">
@@ -4506,23 +4624,23 @@
       <c r="H8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>35</v>
+      <c r="I8" s="48" t="s">
+        <v>125</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="33"/>
+      <c r="A9" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="38"/>
       <c r="G9" s="8" t="s">
         <v>38</v>
       </c>
@@ -4535,17 +4653,17 @@
       <c r="J9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="20"/>
       <c r="G10" s="8" t="s">
         <v>47</v>
       </c>
@@ -4558,18 +4676,18 @@
       <c r="J10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>57</v>
@@ -4577,24 +4695,24 @@
       <c r="H11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>59</v>
+      <c r="I11" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="14" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>62</v>
@@ -4608,494 +4726,548 @@
       <c r="J12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="22" t="s">
-        <v>95</v>
+      <c r="A13" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="22" t="s">
-        <v>96</v>
+      <c r="A14" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="22" t="s">
-        <v>97</v>
+      <c r="A15" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="22" t="s">
-        <v>98</v>
+      <c r="A16" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="G18" s="15" t="s">
+      <c r="M16" s="21"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="G18" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="G19" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="G20" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="47">
+        <v>1</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="34">
+        <v>100</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="G19" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="G20" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="G23" s="47">
         <v>2</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="13" t="s">
+      <c r="H23" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="34">
+        <v>3142</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="47">
+        <v>3</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="34">
+        <v>1072</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="47">
+        <v>4</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="34">
+        <v>32</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="47">
+        <v>5</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="34">
+        <v>106</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="47">
         <v>6</v>
       </c>
-      <c r="L20" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="H27" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="34">
+        <v>26</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="47">
+        <v>7</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="34">
+        <v>2038</v>
+      </c>
+      <c r="J28" s="6">
         <v>2</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="K28" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="47">
         <v>8</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="38">
-        <v>100</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="H29" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="34">
+        <v>128</v>
+      </c>
+      <c r="J29" s="6">
+        <v>2</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="47">
+        <v>9</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="34">
+        <v>353</v>
+      </c>
+      <c r="J30" s="6">
         <v>1</v>
       </c>
-      <c r="L22" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="38">
-        <v>3142</v>
-      </c>
-      <c r="K23" s="6">
+      <c r="K30" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="G31" s="47">
+        <v>10</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="34">
+        <v>501</v>
+      </c>
+      <c r="J31" s="6">
         <v>1</v>
       </c>
-      <c r="L23" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="38">
-        <v>1072</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="K31" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="G32" s="47">
+        <v>11</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="34">
+        <v>194</v>
+      </c>
+      <c r="J32" s="6">
         <v>1</v>
       </c>
-      <c r="L24" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" s="38">
-        <v>32</v>
-      </c>
-      <c r="K25" s="6">
+      <c r="K32" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="7:13">
+      <c r="G33" s="47">
+        <v>12</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="34">
+        <v>78</v>
+      </c>
+      <c r="J33" s="6">
         <v>1</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="K33" s="34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="J26" s="38">
-        <v>106</v>
-      </c>
-      <c r="K26" s="6">
-        <v>1</v>
-      </c>
-      <c r="L26" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="38">
-        <v>26</v>
-      </c>
-      <c r="K27" s="6">
-        <v>1</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" s="38">
-        <v>2038</v>
-      </c>
-      <c r="K28" s="6">
-        <v>2</v>
-      </c>
-      <c r="L28" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="J29" s="38">
-        <v>128</v>
-      </c>
-      <c r="K29" s="6">
-        <v>2</v>
-      </c>
-      <c r="L29" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J30" s="38">
-        <v>353</v>
-      </c>
-      <c r="K30" s="6">
-        <v>1</v>
-      </c>
-      <c r="L30" s="38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="G31" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="J31" s="38">
-        <v>501</v>
-      </c>
-      <c r="K31" s="6">
-        <v>1</v>
-      </c>
-      <c r="L31" s="38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="G32" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32" s="38">
-        <v>194</v>
-      </c>
-      <c r="K32" s="6">
-        <v>1</v>
-      </c>
-      <c r="L32" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="7:12">
-      <c r="G33" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J33" s="38">
-        <v>78</v>
-      </c>
-      <c r="K33" s="6">
-        <v>1</v>
-      </c>
-      <c r="L33" s="38" t="s">
-        <v>98</v>
+      <c r="L33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5105,9 +5277,10 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="G18:M18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/正規化.xlsx
+++ b/正規化.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java 班\git_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F8A21-E333-418B-8448-B1C70BD11F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D385071C-779B-48D9-A96C-B730D2928DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -2271,10 +2271,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2424,6 +2420,10 @@
   </si>
   <si>
     <t>037-614186</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(2,0)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2591,7 +2591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2700,26 +2700,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2738,6 +2723,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4406,8 +4403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07EB040-42BE-4B4A-8B95-02C2D3E72C84}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4425,22 +4422,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="G1" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17">
@@ -4495,28 +4492,28 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="C4" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="J4" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M4" s="24"/>
       <c r="N4" s="26"/>
@@ -4528,10 +4525,10 @@
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="36" t="s">
         <v>115</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -4543,8 +4540,8 @@
       <c r="H5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="48" t="s">
-        <v>123</v>
+      <c r="I5" s="43" t="s">
+        <v>122</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>78</v>
@@ -4574,8 +4571,8 @@
       <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="48" t="s">
-        <v>124</v>
+      <c r="I6" s="43" t="s">
+        <v>123</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>25</v>
@@ -4609,7 +4606,7 @@
         <v>29</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M7" s="26"/>
       <c r="N7" s="27"/>
@@ -4624,8 +4621,8 @@
       <c r="H8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="48" t="s">
-        <v>125</v>
+      <c r="I8" s="43" t="s">
+        <v>124</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>36</v>
@@ -4637,10 +4634,10 @@
       <c r="Q8" s="26"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="47"/>
       <c r="G9" s="8" t="s">
         <v>38</v>
       </c>
@@ -4695,8 +4692,8 @@
       <c r="H11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="48" t="s">
-        <v>126</v>
+      <c r="I11" s="43" t="s">
+        <v>125</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>60</v>
@@ -4709,10 +4706,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>62</v>
@@ -4785,24 +4782,24 @@
       <c r="Q16" s="26"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="41"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="A19" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
       <c r="G19" s="35" t="s">
         <v>75</v>
       </c>
@@ -4810,23 +4807,23 @@
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
       <c r="K19" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="G20" s="13" t="s">
         <v>113</v>
       </c>
@@ -4840,7 +4837,7 @@
         <v>6</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>7</v>
@@ -4851,55 +4848,55 @@
       <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="39" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="I21" s="14" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="42">
         <v>1</v>
       </c>
       <c r="H22" s="31" t="s">
@@ -4922,19 +4919,19 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="42">
         <v>2</v>
       </c>
       <c r="H23" s="31" t="s">
@@ -4957,19 +4954,19 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="42">
         <v>3</v>
       </c>
       <c r="H24" s="31" t="s">
@@ -4992,19 +4989,19 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="42">
         <v>4</v>
       </c>
       <c r="H25" s="31" t="s">
@@ -5027,19 +5024,19 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="42">
         <v>5</v>
       </c>
       <c r="H26" s="32" t="s">
@@ -5062,19 +5059,19 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="42">
         <v>6</v>
       </c>
       <c r="H27" s="33" t="s">
@@ -5097,19 +5094,19 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="42">
         <v>7</v>
       </c>
       <c r="H28" s="32" t="s">
@@ -5132,19 +5129,19 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="42">
         <v>8</v>
       </c>
       <c r="H29" s="32" t="s">
@@ -5167,19 +5164,19 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="42">
         <v>9</v>
       </c>
       <c r="H30" s="31" t="s">
@@ -5202,7 +5199,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="G31" s="47">
+      <c r="G31" s="42">
         <v>10</v>
       </c>
       <c r="H31" s="31" t="s">
@@ -5225,7 +5222,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="G32" s="47">
+      <c r="G32" s="42">
         <v>11</v>
       </c>
       <c r="H32" s="31" t="s">
@@ -5248,7 +5245,7 @@
       </c>
     </row>
     <row r="33" spans="7:13">
-      <c r="G33" s="47">
+      <c r="G33" s="42">
         <v>12</v>
       </c>
       <c r="H33" s="31" t="s">

--- a/正規化.xlsx
+++ b/正規化.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java 班\git_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D385071C-779B-48D9-A96C-B730D2928DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD4EF77-F134-4979-B4B9-63B76AA09B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="129">
   <si>
     <r>
       <rPr>
@@ -2424,6 +2424,10 @@
   </si>
   <si>
     <t>NUMBER(2,0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(50)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4404,7 +4408,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4498,7 +4502,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>120</v>
@@ -4510,7 +4514,7 @@
         <v>121</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>120</v>
@@ -4864,7 +4868,7 @@
         <v>127</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>127</v>

--- a/正規化.xlsx
+++ b/正規化.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java 班\git_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD4EF77-F134-4979-B4B9-63B76AA09B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF16E858-7604-401D-8818-29CC00A9F4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="130">
   <si>
     <r>
       <rPr>
@@ -2428,6 +2428,10 @@
   </si>
   <si>
     <t>NVARCHAR2(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(8,0)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4407,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07EB040-42BE-4B4A-8B95-02C2D3E72C84}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4871,10 +4875,10 @@
         <v>128</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>120</v>
